--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1689.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1689.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8088321305606693</v>
+        <v>0.627428412437439</v>
       </c>
       <c r="B1">
-        <v>3.941357084631044</v>
+        <v>0.9242424964904785</v>
       </c>
       <c r="C1">
-        <v>2.247439915092201</v>
+        <v>4.039738655090332</v>
       </c>
       <c r="D1">
-        <v>1.807377833646034</v>
+        <v>2.105851411819458</v>
       </c>
       <c r="E1">
-        <v>1.672578257085232</v>
+        <v>1.65105926990509</v>
       </c>
     </row>
   </sheetData>
